--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H2">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I2">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J2">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>4.359834602608499</v>
+        <v>23.165788953208</v>
       </c>
       <c r="R2">
-        <v>17.439338410434</v>
+        <v>92.663155812832</v>
       </c>
       <c r="S2">
-        <v>0.003329034213675077</v>
+        <v>0.01577789388888821</v>
       </c>
       <c r="T2">
-        <v>0.001959954708415321</v>
+        <v>0.009261855601231017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H3">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I3">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J3">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>172.639157876556</v>
+        <v>227.975664239456</v>
       </c>
       <c r="R3">
-        <v>1035.834947259336</v>
+        <v>1367.853985436736</v>
       </c>
       <c r="S3">
-        <v>0.1318218959148704</v>
+        <v>0.1552710268959277</v>
       </c>
       <c r="T3">
-        <v>0.1164143692978286</v>
+        <v>0.1367195622203169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,78 +667,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H4">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I4">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J4">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>0.269268292078</v>
+        <v>109.684917132452</v>
       </c>
       <c r="R4">
-        <v>1.615609752468</v>
+        <v>438.7396685298081</v>
       </c>
       <c r="S4">
-        <v>0.0002056048998852377</v>
+        <v>0.07470485841094876</v>
       </c>
       <c r="T4">
-        <v>0.0001815735130993748</v>
+        <v>0.04385284982806859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.3633995</v>
+        <v>2.700122</v>
       </c>
       <c r="H5">
-        <v>8.726799</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I5">
-        <v>0.2236180428734886</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J5">
-        <v>0.1722580872859945</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>107.8558593131452</v>
+        <v>10.855662292948</v>
       </c>
       <c r="R5">
-        <v>431.423437252581</v>
+        <v>65.133973757688</v>
       </c>
       <c r="S5">
-        <v>0.08235538237711178</v>
+        <v>0.007393639305689161</v>
       </c>
       <c r="T5">
-        <v>0.04848638046142915</v>
+        <v>0.0065102624056598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.3633995</v>
+        <v>2.700122</v>
       </c>
       <c r="H6">
-        <v>8.726799</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I6">
-        <v>0.2236180428734886</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J6">
-        <v>0.1722580872859945</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>7.734895026528499</v>
+        <v>106.831104565136</v>
       </c>
       <c r="R6">
-        <v>46.409370159171</v>
+        <v>961.4799410862239</v>
       </c>
       <c r="S6">
-        <v>0.005906125467946064</v>
+        <v>0.07276116670431892</v>
       </c>
       <c r="T6">
-        <v>0.005215809305221978</v>
+        <v>0.09610171701693256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I7">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J7">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>2.697916000326</v>
+        <v>51.399174076262</v>
       </c>
       <c r="R7">
-        <v>16.187496001956</v>
+        <v>308.395044457572</v>
       </c>
       <c r="S7">
-        <v>0.002060044815767333</v>
+        <v>0.03500725644137635</v>
       </c>
       <c r="T7">
-        <v>0.001819263911267737</v>
+        <v>0.03082466105159036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.700122</v>
+        <v>2.330465</v>
       </c>
       <c r="H8">
-        <v>8.100365999999999</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I8">
-        <v>0.1383774273154795</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J8">
-        <v>0.159892940524527</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>106.831104565136</v>
+        <v>9.369480721810001</v>
       </c>
       <c r="R8">
-        <v>961.4799410862239</v>
+        <v>56.21688433086</v>
       </c>
       <c r="S8">
-        <v>0.0815729114974349</v>
+        <v>0.006381421885578834</v>
       </c>
       <c r="T8">
-        <v>0.1080578341464694</v>
+        <v>0.005618982652341624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.700122</v>
+        <v>2.330465</v>
       </c>
       <c r="H9">
-        <v>8.100365999999999</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I9">
-        <v>0.1383774273154795</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J9">
-        <v>0.159892940524527</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>0.1666263287013333</v>
+        <v>92.20551889892002</v>
       </c>
       <c r="R9">
-        <v>1.499636958312</v>
+        <v>829.84967009028</v>
       </c>
       <c r="S9">
-        <v>0.0001272306864150137</v>
+        <v>0.06279988547316774</v>
       </c>
       <c r="T9">
-        <v>0.0001685396801290749</v>
+        <v>0.08294502542769022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.700122</v>
+        <v>2.330465</v>
       </c>
       <c r="H10">
-        <v>8.100365999999999</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I10">
-        <v>0.1383774273154795</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J10">
-        <v>0.159892940524527</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>66.742451283759</v>
+        <v>44.362431110015</v>
       </c>
       <c r="R10">
-        <v>400.4547077025539</v>
+        <v>266.17458666009</v>
       </c>
       <c r="S10">
-        <v>0.0509624616711928</v>
+        <v>0.03021462951772258</v>
       </c>
       <c r="T10">
-        <v>0.04500589823975835</v>
+        <v>0.02660464738911595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.700122</v>
+        <v>3.871119</v>
       </c>
       <c r="H11">
-        <v>8.100365999999999</v>
+        <v>7.742238</v>
       </c>
       <c r="I11">
-        <v>0.1383774273154795</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J11">
-        <v>0.159892940524527</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>4.786442366512667</v>
+        <v>15.563578445646</v>
       </c>
       <c r="R11">
-        <v>43.077981298614</v>
+        <v>62.254313782584</v>
       </c>
       <c r="S11">
-        <v>0.003654778644669474</v>
+        <v>0.01060013495516133</v>
       </c>
       <c r="T11">
-        <v>0.004841404546902447</v>
+        <v>0.006222435009365099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.791195666666667</v>
+        <v>3.871119</v>
       </c>
       <c r="H12">
-        <v>8.373587000000001</v>
+        <v>7.742238</v>
       </c>
       <c r="I12">
-        <v>0.1430448237107242</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J12">
-        <v>0.1652860436390099</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>2.788915259807</v>
+        <v>153.161938117272</v>
       </c>
       <c r="R12">
-        <v>16.733491558842</v>
+        <v>918.9716287036321</v>
       </c>
       <c r="S12">
-        <v>0.002129529022358587</v>
+        <v>0.104316447512837</v>
       </c>
       <c r="T12">
-        <v>0.001880626707109368</v>
+        <v>0.09185293175070633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.791195666666667</v>
+        <v>3.871119</v>
       </c>
       <c r="H13">
-        <v>8.373587000000001</v>
+        <v>7.742238</v>
       </c>
       <c r="I13">
-        <v>0.1430448237107242</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J13">
-        <v>0.1652860436390099</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>110.4344604160187</v>
+        <v>73.69012190964901</v>
       </c>
       <c r="R13">
-        <v>993.9101437441681</v>
+        <v>294.760487638596</v>
       </c>
       <c r="S13">
-        <v>0.08432432204508679</v>
+        <v>0.05018930831572957</v>
       </c>
       <c r="T13">
-        <v>0.1117025669280909</v>
+        <v>0.02946186161597425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.791195666666667</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H14">
-        <v>8.373587000000001</v>
+        <v>19.723822</v>
       </c>
       <c r="I14">
-        <v>0.1430448237107242</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J14">
-        <v>0.1652860436390099</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>0.1722465453871111</v>
+        <v>26.43277485958266</v>
       </c>
       <c r="R14">
-        <v>1.550218908484</v>
+        <v>158.596649157496</v>
       </c>
       <c r="S14">
-        <v>0.0001315221092189953</v>
+        <v>0.01800299216080071</v>
       </c>
       <c r="T14">
-        <v>0.0001742244331321547</v>
+        <v>0.01585203148382748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.791195666666667</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H15">
-        <v>8.373587000000001</v>
+        <v>19.723822</v>
       </c>
       <c r="I15">
-        <v>0.1430448237107242</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J15">
-        <v>0.1652860436390099</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>68.99363836372551</v>
+        <v>260.1262326302453</v>
       </c>
       <c r="R15">
-        <v>413.961830182353</v>
+        <v>2341.136093672208</v>
       </c>
       <c r="S15">
-        <v>0.05268139816619376</v>
+        <v>0.1771683280222539</v>
       </c>
       <c r="T15">
-        <v>0.04652392304542332</v>
+        <v>0.2340009279008317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.791195666666667</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H16">
-        <v>8.373587000000001</v>
+        <v>19.723822</v>
       </c>
       <c r="I16">
-        <v>0.1430448237107242</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J16">
-        <v>0.1652860436390099</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>4.947886500002555</v>
+        <v>125.1533770729873</v>
       </c>
       <c r="R16">
-        <v>44.530978500023</v>
+        <v>750.920262437924</v>
       </c>
       <c r="S16">
-        <v>0.003778052367866086</v>
+        <v>0.08524020948659114</v>
       </c>
       <c r="T16">
-        <v>0.005004702525254195</v>
+        <v>0.07505588362203648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.513618</v>
+        <v>2.207955</v>
       </c>
       <c r="H17">
-        <v>7.027236</v>
+        <v>6.623865</v>
       </c>
       <c r="I17">
-        <v>0.1800679448592918</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J17">
-        <v>0.1387104518240058</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>3.510747374094</v>
+        <v>8.87693735247</v>
       </c>
       <c r="R17">
-        <v>14.042989496376</v>
+        <v>53.26162411482</v>
       </c>
       <c r="S17">
-        <v>0.002680697592733509</v>
+        <v>0.006045957506065619</v>
       </c>
       <c r="T17">
-        <v>0.00157824928537321</v>
+        <v>0.005323598870676432</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.513618</v>
+        <v>2.207955</v>
       </c>
       <c r="H18">
-        <v>7.027236</v>
+        <v>6.623865</v>
       </c>
       <c r="I18">
-        <v>0.1800679448592918</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J18">
-        <v>0.1387104518240058</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>139.017308091984</v>
+        <v>87.35837546604002</v>
       </c>
       <c r="R18">
-        <v>834.103848551904</v>
+        <v>786.22537919436</v>
       </c>
       <c r="S18">
-        <v>0.1061492962724626</v>
+        <v>0.05949856407622859</v>
       </c>
       <c r="T18">
-        <v>0.09374241882355673</v>
+        <v>0.07858469602340983</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.513618</v>
+        <v>2.207955</v>
       </c>
       <c r="H19">
-        <v>7.027236</v>
+        <v>6.623865</v>
       </c>
       <c r="I19">
-        <v>0.1800679448592918</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J19">
-        <v>0.1387104518240058</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>0.216827709192</v>
+        <v>42.030346553805</v>
       </c>
       <c r="R19">
-        <v>1.300966255152</v>
+        <v>252.18207932283</v>
       </c>
       <c r="S19">
-        <v>0.0001655629004689965</v>
+        <v>0.02862627944071383</v>
       </c>
       <c r="T19">
-        <v>0.0001462116782910204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.513618</v>
-      </c>
-      <c r="H20">
-        <v>7.027236</v>
-      </c>
-      <c r="I20">
-        <v>0.1800679448592918</v>
-      </c>
-      <c r="J20">
-        <v>0.1387104518240058</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>86.85069718877101</v>
-      </c>
-      <c r="R20">
-        <v>347.402788755084</v>
-      </c>
-      <c r="S20">
-        <v>0.06631649334815727</v>
-      </c>
-      <c r="T20">
-        <v>0.03904355288671729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.513618</v>
-      </c>
-      <c r="H21">
-        <v>7.027236</v>
-      </c>
-      <c r="I21">
-        <v>0.1800679448592918</v>
-      </c>
-      <c r="J21">
-        <v>0.1387104518240058</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>6.228507472974</v>
-      </c>
-      <c r="R21">
-        <v>37.371044837844</v>
-      </c>
-      <c r="S21">
-        <v>0.004755894745469378</v>
-      </c>
-      <c r="T21">
-        <v>0.00420001915006761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.567523333333333</v>
-      </c>
-      <c r="H22">
-        <v>10.70257</v>
-      </c>
-      <c r="I22">
-        <v>0.1828305168265029</v>
-      </c>
-      <c r="J22">
-        <v>0.2112577861876348</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>3.56460866677</v>
-      </c>
-      <c r="R22">
-        <v>21.38765200062</v>
-      </c>
-      <c r="S22">
-        <v>0.002721824401994551</v>
-      </c>
-      <c r="T22">
-        <v>0.00240369377862886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3.567523333333333</v>
-      </c>
-      <c r="H23">
-        <v>10.70257</v>
-      </c>
-      <c r="I23">
-        <v>0.1828305168265029</v>
-      </c>
-      <c r="J23">
-        <v>0.2112577861876348</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>141.1500881300533</v>
-      </c>
-      <c r="R23">
-        <v>1270.35079317048</v>
-      </c>
-      <c r="S23">
-        <v>0.1077778208299603</v>
-      </c>
-      <c r="T23">
-        <v>0.1427708987471651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.567523333333333</v>
-      </c>
-      <c r="H24">
-        <v>10.70257</v>
-      </c>
-      <c r="I24">
-        <v>0.1828305168265029</v>
-      </c>
-      <c r="J24">
-        <v>0.2112577861876348</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>0.2201542432488889</v>
-      </c>
-      <c r="R24">
-        <v>1.98138818924</v>
-      </c>
-      <c r="S24">
-        <v>0.0001681029384974375</v>
-      </c>
-      <c r="T24">
-        <v>0.0002226822497105726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.567523333333333</v>
-      </c>
-      <c r="H25">
-        <v>10.70257</v>
-      </c>
-      <c r="I25">
-        <v>0.1828305168265029</v>
-      </c>
-      <c r="J25">
-        <v>0.2112577861876348</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>88.18314590180501</v>
-      </c>
-      <c r="R25">
-        <v>529.09887541083</v>
-      </c>
-      <c r="S25">
-        <v>0.0673339097774419</v>
-      </c>
-      <c r="T25">
-        <v>0.0594638287114299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3.567523333333333</v>
-      </c>
-      <c r="H26">
-        <v>10.70257</v>
-      </c>
-      <c r="I26">
-        <v>0.1828305168265029</v>
-      </c>
-      <c r="J26">
-        <v>0.2112577861876348</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>6.324064181614444</v>
-      </c>
-      <c r="R26">
-        <v>56.91657763453</v>
-      </c>
-      <c r="S26">
-        <v>0.004828858878608717</v>
-      </c>
-      <c r="T26">
-        <v>0.006396682700700403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.576876</v>
-      </c>
-      <c r="H27">
-        <v>7.730627999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.132061244414513</v>
-      </c>
-      <c r="J27">
-        <v>0.1525946905388279</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N27">
-        <v>1.998366</v>
-      </c>
-      <c r="O27">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P27">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q27">
-        <v>2.574770692308</v>
-      </c>
-      <c r="R27">
-        <v>15.448624153848</v>
-      </c>
-      <c r="S27">
-        <v>0.001966014885503419</v>
-      </c>
-      <c r="T27">
-        <v>0.001736224330090256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.576876</v>
-      </c>
-      <c r="H28">
-        <v>7.730627999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.132061244414513</v>
-      </c>
-      <c r="J28">
-        <v>0.1525946905388279</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>39.565288</v>
-      </c>
-      <c r="N28">
-        <v>118.695864</v>
-      </c>
-      <c r="O28">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P28">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q28">
-        <v>101.954841080288</v>
-      </c>
-      <c r="R28">
-        <v>917.593569722592</v>
-      </c>
-      <c r="S28">
-        <v>0.07784954823814036</v>
-      </c>
-      <c r="T28">
-        <v>0.1031255770754127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.576876</v>
-      </c>
-      <c r="H29">
-        <v>7.730627999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.132061244414513</v>
-      </c>
-      <c r="J29">
-        <v>0.1525946905388279</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N29">
-        <v>0.185132</v>
-      </c>
-      <c r="O29">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P29">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q29">
-        <v>0.1590207358773333</v>
-      </c>
-      <c r="R29">
-        <v>1.431186622896</v>
-      </c>
-      <c r="S29">
-        <v>0.0001214232920906444</v>
-      </c>
-      <c r="T29">
-        <v>0.0001608467531364471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.576876</v>
-      </c>
-      <c r="H30">
-        <v>7.730627999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.132061244414513</v>
-      </c>
-      <c r="J30">
-        <v>0.1525946905388279</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>24.7183095</v>
-      </c>
-      <c r="N30">
-        <v>49.436619</v>
-      </c>
-      <c r="O30">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P30">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q30">
-        <v>63.696018511122</v>
-      </c>
-      <c r="R30">
-        <v>382.1761110667319</v>
-      </c>
-      <c r="S30">
-        <v>0.04863630027880837</v>
-      </c>
-      <c r="T30">
-        <v>0.04295162182763429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.576876</v>
-      </c>
-      <c r="H31">
-        <v>7.730627999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.132061244414513</v>
-      </c>
-      <c r="J31">
-        <v>0.1525946905388279</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N31">
-        <v>5.318029</v>
-      </c>
-      <c r="O31">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P31">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q31">
-        <v>4.567967099134666</v>
-      </c>
-      <c r="R31">
-        <v>41.111703892212</v>
-      </c>
-      <c r="S31">
-        <v>0.00348795771997017</v>
-      </c>
-      <c r="T31">
-        <v>0.004620420552554214</v>
+        <v>0.0252060701302253</v>
       </c>
     </row>
   </sheetData>
